--- a/实验数据记录.xlsx
+++ b/实验数据记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\GitHub\BC-experiment\BC-experiment-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubSharing\BC-experiment-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380BEBC6-BC7A-47E6-B6C8-1482985BA506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88639BF1-3E99-4FEA-94C4-1DE6F5B79E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2940" windowWidth="16200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18360" yWindow="1836" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>项目</t>
   </si>
@@ -802,6 +802,18 @@
   </si>
   <si>
     <t>Req1 (Ω)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +916,13 @@
       <name val="宋体"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1222,7 +1241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,24 +1293,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1302,9 +1309,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1372,6 +1376,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1653,205 +1678,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="19"/>
-    <col min="5" max="5" width="9.83203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="19"/>
-    <col min="8" max="8" width="12.75" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.9140625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="19"/>
+    <col min="1" max="2" width="8.6640625" style="17"/>
+    <col min="3" max="3" width="14.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="17"/>
+    <col min="5" max="5" width="9.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17"/>
+    <col min="8" max="8" width="12.77734375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="31.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="32">
         <v>7.99918</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="32">
         <v>5.3122299999999996</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="32">
         <v>16.016819999999999</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="33">
         <v>985.71600000000001</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="33">
         <v>499.42373080299302</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="33">
         <v>498.579618390017</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="34">
         <v>499.00167459650498</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="3" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="38">
         <v>2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="38">
         <v>3</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="38">
         <v>4</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="39">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="28">
         <v>5.1465699999999996</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="28">
         <v>5.3880699999999999</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="28">
         <v>4.4039000000000001</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="28">
         <v>4.93466</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>6.0346599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="43">
         <v>5.7189100000000002</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="43">
         <v>5.2345600000000001</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="43">
         <v>7.2055100000000003</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="43">
         <v>6.1423500000000004</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="44">
         <v>3.9330699999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="38">
         <v>1</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="38">
         <v>2</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="38">
         <v>3</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="39">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="28">
         <v>5.1480899999999998</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <v>5.38971</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="28">
         <v>4.4018899999999999</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="28">
         <v>4.93309</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>6.0378299999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="43">
         <v>5.7177499999999997</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="43">
         <v>5.23414</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="43">
         <v>7.2036300000000004</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="43">
         <v>6.1407999999999996</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="44">
         <v>3.9325000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1874,8 +1901,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1901,8 +1928,8 @@
         <v>5.0003599999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1920,33 +1947,33 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="45">
         <v>0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="45">
         <v>0.50215299999999996</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="45">
         <v>1.0042800000000001</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="45">
         <v>1.506672</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="45">
         <v>2.0084230000000001</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="45">
         <v>2.5108899999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1955,15 +1982,15 @@
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1979,12 +2006,12 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2004,8 +2031,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+    <row r="20" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2028,8 +2055,8 @@
         <v>9.0020000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2044,8 +2071,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+    <row r="22" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -2068,8 +2095,8 @@
         <v>1.50637</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2084,8 +2111,8 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2108,8 +2135,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2131,8 +2158,8 @@
         <v>0.29536899999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2179,7 @@
         <v>-0.300238</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2165,8 +2192,8 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2189,8 +2216,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
@@ -2210,7 +2237,7 @@
         <v>1.367691</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2260,7 @@
         <v>7.5006399999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2246,10 +2273,10 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2268,8 +2295,8 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:7" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
       <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
@@ -2282,10 +2309,10 @@
       <c r="E36" s="15">
         <v>0.48558499999999999</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -2301,143 +2328,219 @@
       <c r="E37" s="16">
         <v>1.004138</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <f>C37/C36</f>
+        <v>2.0677939925828763</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38:E38" si="0">D37/D36</f>
+        <v>2.0679041837247421</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0678933657341143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:7" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="4">
         <v>1.5</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>2</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>2.5</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:7" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C41" s="10">
         <v>1.3683639999999999</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>0.94055100000000003</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>0.71723899999999996</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>0.57869000000000004</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>0.485379</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C42" s="10">
         <v>3.0153300000000001</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>2.0086970000000002</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>1.507398</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>1.204337</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>1.0035689999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="6">
+        <f>C42/C41</f>
+        <v>2.2036022578787517</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" ref="D43:G43" si="1">D42/D41</f>
+        <v>2.1356598419437121</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1016676449551683</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
+        <v>2.081143617480862</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0675987218235643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C45" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D45" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E45" s="4">
         <v>3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F45" s="4">
         <v>4</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G45" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
-      <c r="B44" s="6" t="s">
+    <row r="46" spans="1:7" ht="32.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C46" s="10">
         <v>0.485371</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D46" s="10">
         <v>0.48534500000000003</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E46" s="10">
         <v>0.485323</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F46" s="10">
         <v>0.48529800000000001</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G46" s="10">
         <v>0.48528900000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C47" s="10">
         <v>1.003652</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D47" s="10">
         <v>0.75278199999999995</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E47" s="10">
         <v>0.66894100000000001</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F47" s="10">
         <v>0.62723499999999999</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G47" s="10">
         <v>0.60209199999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="6">
+        <f>C47/C46</f>
+        <v>2.0678038036883128</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:G48" si="2">D47/D46</f>
+        <v>1.5510245289433289</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3783418465640409</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2924739026330214</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2406875078561432</v>
       </c>
     </row>
   </sheetData>
